--- a/Images/Countries.xlsx
+++ b/Images/Countries.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
       <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Country name</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Antigua and Barbuda</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
     <t>Benin</t>
   </si>
   <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
     <t>Botswana</t>
   </si>
   <si>
@@ -111,9 +111,6 @@
     <t>Chad</t>
   </si>
   <si>
-    <t>Chile</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -258,7 +255,7 @@
     <t>Mauritius</t>
   </si>
   <si>
-    <t>Mexico</t>
+    <t>Federated States of Micronesia</t>
   </si>
   <si>
     <t>Monaco</t>
@@ -385,9 +382,6 @@
   </si>
   <si>
     <t>Uganda</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
   </si>
   <si>
     <t>Vanuatu</t>
@@ -777,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H113"/>
   <!-- B4P: Example: A1:Z9 -->
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1" showGridLines="0">
@@ -838,7 +832,7 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
@@ -847,12 +841,12 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
@@ -874,7 +868,7 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
@@ -882,7 +876,10 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="G7">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
@@ -891,14 +888,12 @@
         <v>14</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
@@ -907,10 +902,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -920,7 +915,7 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1</v>
       </c>
     </row>
@@ -1024,7 +1019,7 @@
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
@@ -1032,10 +1027,10 @@
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1060,7 +1055,7 @@
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>1</v>
       </c>
     </row>
@@ -1068,7 +1063,7 @@
       <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="E23">
+      <c r="D23">
         <v>1</v>
       </c>
     </row>
@@ -1104,7 +1099,7 @@
       <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="D26">
+      <c r="C26">
         <v>1</v>
       </c>
     </row>
@@ -1112,7 +1107,7 @@
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>1</v>
       </c>
     </row>
@@ -1122,10 +1117,10 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1136,10 +1131,10 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1148,7 +1143,7 @@
       <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="E30">
+      <c r="D30">
         <v>1</v>
       </c>
     </row>
@@ -1156,7 +1151,7 @@
       <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="D31">
+      <c r="C31">
         <v>1</v>
       </c>
     </row>
@@ -1165,11 +1160,11 @@
         <v>38</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1200,6 +1195,9 @@
       <c r="A35" t="s">
         <v>41</v>
       </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
       <c r="E35">
         <v>1</v>
       </c>
@@ -1209,13 +1207,11 @@
         <v>42</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1232,16 +1228,15 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="H38">
+      <c r="D38">
         <v>1</v>
       </c>
     </row>
@@ -1258,10 +1253,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1272,12 +1267,12 @@
         <v>47</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
@@ -1285,7 +1280,7 @@
       <c r="A42" t="s">
         <v>48</v>
       </c>
-      <c r="F42">
+      <c r="C42">
         <v>1</v>
       </c>
     </row>
@@ -1302,11 +1297,11 @@
         <v>50</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -1317,10 +1312,10 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1329,7 +1324,7 @@
       <c r="A46" t="s">
         <v>52</v>
       </c>
-      <c r="D46">
+      <c r="C46">
         <v>1</v>
       </c>
     </row>
@@ -1337,7 +1332,7 @@
       <c r="A47" t="s">
         <v>53</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>1</v>
       </c>
     </row>
@@ -1347,10 +1342,10 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -1360,14 +1355,16 @@
         <v>55</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1376,9 +1373,6 @@
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1393,13 +1387,13 @@
         <v>58</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
+      <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1407,13 +1401,13 @@
         <v>59</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="2">
-        <v>1</v>
-      </c>
+      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -1428,7 +1422,7 @@
       <c r="A55" t="s">
         <v>61</v>
       </c>
-      <c r="C55">
+      <c r="G55">
         <v>1</v>
       </c>
     </row>
@@ -1437,13 +1431,13 @@
         <v>62</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2">
-        <v>1</v>
-      </c>
+      <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -1464,7 +1458,7 @@
       <c r="A58" t="s">
         <v>64</v>
       </c>
-      <c r="C58">
+      <c r="F58">
         <v>1</v>
       </c>
     </row>
@@ -1472,6 +1466,9 @@
       <c r="A59" t="s">
         <v>65</v>
       </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
       <c r="F59">
         <v>1</v>
       </c>
@@ -1486,9 +1483,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="2">
-        <v>1</v>
-      </c>
+      <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
@@ -1497,10 +1492,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -1518,7 +1513,7 @@
       <c r="A63" t="s">
         <v>69</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>1</v>
       </c>
     </row>
@@ -1527,10 +1522,10 @@
         <v>70</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -1572,10 +1567,10 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2">
-        <v>1</v>
-      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -1585,10 +1580,10 @@
         <v>75</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -1615,11 +1610,11 @@
         <v>78</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
+      <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -1630,10 +1625,10 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2">
-        <v>1</v>
-      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -1642,7 +1637,7 @@
       <c r="A74" t="s">
         <v>80</v>
       </c>
-      <c r="D74">
+      <c r="C74">
         <v>1</v>
       </c>
     </row>
@@ -1694,7 +1689,7 @@
       <c r="A79" t="s">
         <v>85</v>
       </c>
-      <c r="C79">
+      <c r="E79">
         <v>1</v>
       </c>
     </row>
@@ -1703,11 +1698,11 @@
         <v>86</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
       <c r="D80" s="2"/>
-      <c r="E80" s="2">
-        <v>1</v>
-      </c>
+      <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -1717,11 +1712,11 @@
         <v>87</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2">
-        <v>1</v>
-      </c>
+      <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -1738,7 +1733,7 @@
       <c r="A83" t="s">
         <v>89</v>
       </c>
-      <c r="E83">
+      <c r="C83">
         <v>1</v>
       </c>
     </row>
@@ -1747,13 +1742,13 @@
         <v>90</v>
       </c>
       <c r="B84" s="2"/>
-      <c r="C84" s="2">
-        <v>1</v>
-      </c>
+      <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -1761,13 +1756,15 @@
         <v>91</v>
       </c>
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="2">
-        <v>1</v>
-      </c>
+      <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -1775,9 +1772,6 @@
         <v>92</v>
       </c>
       <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
         <v>1</v>
       </c>
     </row>
@@ -1821,7 +1815,7 @@
       <c r="A90" t="s">
         <v>96</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>1</v>
       </c>
     </row>
@@ -1829,6 +1823,9 @@
       <c r="A91" t="s">
         <v>97</v>
       </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
       <c r="D91">
         <v>1</v>
       </c>
@@ -1841,9 +1838,7 @@
       <c r="C92" s="2">
         <v>1</v>
       </c>
-      <c r="D92" s="2">
-        <v>1</v>
-      </c>
+      <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -1911,7 +1906,7 @@
       <c r="A98" t="s">
         <v>104</v>
       </c>
-      <c r="C98">
+      <c r="E98">
         <v>1</v>
       </c>
     </row>
@@ -1919,7 +1914,7 @@
       <c r="A99" t="s">
         <v>105</v>
       </c>
-      <c r="E99">
+      <c r="C99">
         <v>1</v>
       </c>
     </row>
@@ -1928,12 +1923,14 @@
         <v>106</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="2">
-        <v>1</v>
-      </c>
-      <c r="D100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
       <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
+      <c r="F100" s="2">
+        <v>1</v>
+      </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
     </row>
@@ -1941,15 +1938,13 @@
       <c r="A101" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="2"/>
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
       <c r="C101" s="2"/>
-      <c r="D101" s="2">
-        <v>1</v>
-      </c>
+      <c r="D101" s="2"/>
       <c r="E101" s="2"/>
-      <c r="F101" s="2">
-        <v>1</v>
-      </c>
+      <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
@@ -1957,7 +1952,7 @@
       <c r="A102" t="s">
         <v>108</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>1</v>
       </c>
     </row>
@@ -1965,7 +1960,7 @@
       <c r="A103" t="s">
         <v>109</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>1</v>
       </c>
     </row>
@@ -1974,10 +1969,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2">
-        <v>1</v>
-      </c>
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -2009,7 +2004,7 @@
       <c r="A107" t="s">
         <v>113</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>1</v>
       </c>
     </row>
@@ -2018,10 +2013,10 @@
         <v>114</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2">
-        <v>1</v>
-      </c>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -2048,6 +2043,9 @@
       <c r="C110">
         <v>1</v>
       </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -2065,9 +2063,7 @@
       <c r="C112" s="2">
         <v>1</v>
       </c>
-      <c r="D112" s="2">
-        <v>1</v>
-      </c>
+      <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -2078,30 +2074,14 @@
         <v>119</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
+      <c r="C113" s="2">
+        <v>1</v>
+      </c>
       <c r="D113" s="2"/>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
+      <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>120</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>121</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>

--- a/Images/Countries.xlsx
+++ b/Images/Countries.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Country name</t>
   </si>
@@ -240,9 +240,6 @@
     <t>Malawi</t>
   </si>
   <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
     <t>Mali</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t>Nauru</t>
   </si>
   <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
     <t>Nicaragua</t>
   </si>
   <si>
@@ -355,9 +349,6 @@
   </si>
   <si>
     <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
   </si>
   <si>
     <t>Tanzania</t>
@@ -771,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H110"/>
   <!-- B4P: Example: A1:Z9 -->
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1" showGridLines="0">
@@ -1355,9 +1346,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
+      <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -1505,7 +1494,7 @@
       <c r="A62" t="s">
         <v>68</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>1</v>
       </c>
     </row>
@@ -1513,7 +1502,7 @@
       <c r="A63" t="s">
         <v>69</v>
       </c>
-      <c r="D63">
+      <c r="C63">
         <v>1</v>
       </c>
     </row>
@@ -1557,7 +1546,7 @@
       <c r="A67" t="s">
         <v>73</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>1</v>
       </c>
     </row>
@@ -1566,10 +1555,10 @@
         <v>74</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -1593,7 +1582,7 @@
       <c r="A70" t="s">
         <v>76</v>
       </c>
-      <c r="C70">
+      <c r="E70">
         <v>1</v>
       </c>
     </row>
@@ -1601,7 +1590,7 @@
       <c r="A71" t="s">
         <v>77</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>1</v>
       </c>
     </row>
@@ -1610,11 +1599,11 @@
         <v>78</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="2">
-        <v>1</v>
-      </c>
+      <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -1624,10 +1613,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2">
-        <v>1</v>
-      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -1668,11 +1657,11 @@
         <v>83</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="2">
-        <v>1</v>
-      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -1698,11 +1687,11 @@
         <v>86</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="2">
-        <v>1</v>
-      </c>
+      <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -1712,11 +1701,11 @@
         <v>87</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
       <c r="D81" s="2"/>
-      <c r="E81" s="2">
-        <v>1</v>
-      </c>
+      <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -1725,7 +1714,7 @@
       <c r="A82" t="s">
         <v>88</v>
       </c>
-      <c r="E82">
+      <c r="G82">
         <v>1</v>
       </c>
     </row>
@@ -1736,19 +1725,22 @@
       <c r="C83">
         <v>1</v>
       </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="2">
-        <v>1</v>
-      </c>
+      <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -1759,9 +1751,7 @@
       <c r="C85" s="2">
         <v>1</v>
       </c>
-      <c r="D85" s="2">
-        <v>1</v>
-      </c>
+      <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -1788,10 +1778,10 @@
         <v>94</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="2">
-        <v>1</v>
-      </c>
-      <c r="D88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -1805,7 +1795,9 @@
       <c r="C89" s="2">
         <v>1</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -1815,7 +1807,7 @@
       <c r="A90" t="s">
         <v>96</v>
       </c>
-      <c r="D90">
+      <c r="C90">
         <v>1</v>
       </c>
     </row>
@@ -1824,9 +1816,6 @@
         <v>97</v>
       </c>
       <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
         <v>1</v>
       </c>
     </row>
@@ -1879,11 +1868,11 @@
         <v>102</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="2">
-        <v>1</v>
-      </c>
+      <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -1906,7 +1895,10 @@
       <c r="A98" t="s">
         <v>104</v>
       </c>
-      <c r="E98">
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="F98">
         <v>1</v>
       </c>
     </row>
@@ -1928,9 +1920,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="2"/>
-      <c r="F100" s="2">
-        <v>1</v>
-      </c>
+      <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
     </row>
@@ -1938,10 +1928,10 @@
       <c r="A101" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="2">
-        <v>1</v>
-      </c>
-      <c r="C101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -1960,7 +1950,7 @@
       <c r="A103" t="s">
         <v>109</v>
       </c>
-      <c r="D103">
+      <c r="C103">
         <v>1</v>
       </c>
     </row>
@@ -1969,10 +1959,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="2">
-        <v>1</v>
-      </c>
-      <c r="D104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -2004,6 +1994,9 @@
       <c r="A107" t="s">
         <v>113</v>
       </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
       <c r="D107">
         <v>1</v>
       </c>
@@ -2013,11 +2006,11 @@
         <v>114</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="2">
-        <v>1</v>
-      </c>
+      <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -2043,45 +2036,6 @@
       <c r="C110">
         <v>1</v>
       </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>117</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2">
-        <v>1</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2">
-        <v>1</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>

--- a/Images/Countries.xlsx
+++ b/Images/Countries.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Country name</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>Honduras</t>
-  </si>
-  <si>
-    <t>India</t>
   </si>
   <si>
     <t>Ireland</t>
@@ -762,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H109"/>
   <!-- B4P: Example: A1:Z9 -->
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1" showGridLines="0">
@@ -1346,14 +1343,14 @@
         <v>55</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2">
-        <v>1</v>
-      </c>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1367,7 +1364,7 @@
       <c r="A51" t="s">
         <v>57</v>
       </c>
-      <c r="C51">
+      <c r="G51">
         <v>1</v>
       </c>
     </row>
@@ -1376,13 +1373,13 @@
         <v>58</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2">
-        <v>1</v>
-      </c>
+      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1403,7 +1400,7 @@
       <c r="A54" t="s">
         <v>60</v>
       </c>
-      <c r="C54">
+      <c r="G54">
         <v>1</v>
       </c>
     </row>
@@ -1411,7 +1408,7 @@
       <c r="A55" t="s">
         <v>61</v>
       </c>
-      <c r="G55">
+      <c r="C55">
         <v>1</v>
       </c>
     </row>
@@ -1434,12 +1431,12 @@
         <v>63</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
@@ -1447,6 +1444,9 @@
       <c r="A58" t="s">
         <v>64</v>
       </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
       <c r="F58">
         <v>1</v>
       </c>
@@ -1458,19 +1458,16 @@
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -1481,10 +1478,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -1494,7 +1491,7 @@
       <c r="A62" t="s">
         <v>68</v>
       </c>
-      <c r="D62">
+      <c r="C62">
         <v>1</v>
       </c>
     </row>
@@ -1538,7 +1535,7 @@
       <c r="A66" t="s">
         <v>72</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>1</v>
       </c>
     </row>
@@ -1546,7 +1543,7 @@
       <c r="A67" t="s">
         <v>73</v>
       </c>
-      <c r="D67">
+      <c r="C67">
         <v>1</v>
       </c>
     </row>
@@ -1569,11 +1566,11 @@
         <v>75</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
+      <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -1582,7 +1579,7 @@
       <c r="A70" t="s">
         <v>76</v>
       </c>
-      <c r="E70">
+      <c r="D70">
         <v>1</v>
       </c>
     </row>
@@ -1590,7 +1587,7 @@
       <c r="A71" t="s">
         <v>77</v>
       </c>
-      <c r="D71">
+      <c r="C71">
         <v>1</v>
       </c>
     </row>
@@ -1643,11 +1640,11 @@
         <v>82</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="2">
-        <v>1</v>
-      </c>
+      <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -1657,11 +1654,11 @@
         <v>83</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
       <c r="D77" s="2"/>
-      <c r="E77" s="2">
-        <v>1</v>
-      </c>
+      <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -1670,7 +1667,7 @@
       <c r="A78" t="s">
         <v>84</v>
       </c>
-      <c r="C78">
+      <c r="E78">
         <v>1</v>
       </c>
     </row>
@@ -1687,11 +1684,11 @@
         <v>86</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
       <c r="D80" s="2"/>
-      <c r="E80" s="2">
-        <v>1</v>
-      </c>
+      <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -1701,20 +1698,23 @@
         <v>87</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2">
-        <v>1</v>
-      </c>
+      <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
-      <c r="G82">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
         <v>1</v>
       </c>
     </row>
@@ -1723,9 +1723,6 @@
         <v>89</v>
       </c>
       <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
         <v>1</v>
       </c>
     </row>
@@ -1769,7 +1766,7 @@
       <c r="A87" t="s">
         <v>93</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>1</v>
       </c>
     </row>
@@ -1778,7 +1775,9 @@
         <v>94</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
       <c r="D88" s="2">
         <v>1</v>
       </c>
@@ -1795,9 +1794,7 @@
       <c r="C89" s="2">
         <v>1</v>
       </c>
-      <c r="D89" s="2">
-        <v>1</v>
-      </c>
+      <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -1859,7 +1856,7 @@
       <c r="A95" t="s">
         <v>101</v>
       </c>
-      <c r="C95">
+      <c r="E95">
         <v>1</v>
       </c>
     </row>
@@ -1868,11 +1865,11 @@
         <v>102</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
       <c r="D96" s="2"/>
-      <c r="E96" s="2">
-        <v>1</v>
-      </c>
+      <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -1882,12 +1879,14 @@
         <v>103</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="2">
-        <v>1</v>
-      </c>
-      <c r="D97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2">
+        <v>1</v>
+      </c>
       <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+      <c r="F97" s="2">
+        <v>1</v>
+      </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
@@ -1895,10 +1894,7 @@
       <c r="A98" t="s">
         <v>104</v>
       </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="F98">
+      <c r="C98">
         <v>1</v>
       </c>
     </row>
@@ -1906,7 +1902,7 @@
       <c r="A99" t="s">
         <v>105</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>1</v>
       </c>
     </row>
@@ -1915,10 +1911,10 @@
         <v>106</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2">
-        <v>1</v>
-      </c>
+      <c r="C100" s="2">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -1950,7 +1946,7 @@
       <c r="A103" t="s">
         <v>109</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>1</v>
       </c>
     </row>
@@ -1959,10 +1955,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2">
-        <v>1</v>
-      </c>
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -1989,15 +1985,15 @@
       <c r="C106">
         <v>1</v>
       </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
+      <c r="E107">
         <v>1</v>
       </c>
     </row>
@@ -2006,11 +2002,11 @@
         <v>114</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
       <c r="D108" s="2"/>
-      <c r="E108" s="2">
-        <v>1</v>
-      </c>
+      <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -2028,14 +2024,6 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>116</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>

--- a/Images/Countries.xlsx
+++ b/Images/Countries.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Country name</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Honduras</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
   <si>
     <t>Ireland</t>
@@ -759,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H110"/>
   <!-- B4P: Example: A1:Z9 -->
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1" showGridLines="0">
@@ -1350,7 +1353,9 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1364,7 +1369,7 @@
       <c r="A51" t="s">
         <v>57</v>
       </c>
-      <c r="G51">
+      <c r="C51">
         <v>1</v>
       </c>
     </row>
@@ -1373,13 +1378,13 @@
         <v>58</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
+      <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1400,7 +1405,7 @@
       <c r="A54" t="s">
         <v>60</v>
       </c>
-      <c r="G54">
+      <c r="C54">
         <v>1</v>
       </c>
     </row>
@@ -1408,7 +1413,7 @@
       <c r="A55" t="s">
         <v>61</v>
       </c>
-      <c r="C55">
+      <c r="G55">
         <v>1</v>
       </c>
     </row>
@@ -1431,12 +1436,12 @@
         <v>63</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="2">
-        <v>1</v>
-      </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
@@ -1444,9 +1449,6 @@
       <c r="A58" t="s">
         <v>64</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
       <c r="F58">
         <v>1</v>
       </c>
@@ -1458,16 +1460,19 @@
       <c r="D59">
         <v>1</v>
       </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -1478,10 +1483,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -1491,7 +1496,7 @@
       <c r="A62" t="s">
         <v>68</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>1</v>
       </c>
     </row>
@@ -1535,7 +1540,7 @@
       <c r="A66" t="s">
         <v>72</v>
       </c>
-      <c r="D66">
+      <c r="C66">
         <v>1</v>
       </c>
     </row>
@@ -1543,7 +1548,7 @@
       <c r="A67" t="s">
         <v>73</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>1</v>
       </c>
     </row>
@@ -1566,11 +1571,11 @@
         <v>75</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
       <c r="D69" s="2"/>
-      <c r="E69" s="2">
-        <v>1</v>
-      </c>
+      <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -1579,7 +1584,7 @@
       <c r="A70" t="s">
         <v>76</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>1</v>
       </c>
     </row>
@@ -1587,7 +1592,7 @@
       <c r="A71" t="s">
         <v>77</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>1</v>
       </c>
     </row>
@@ -1640,11 +1645,11 @@
         <v>82</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
       <c r="D76" s="2"/>
-      <c r="E76" s="2">
-        <v>1</v>
-      </c>
+      <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -1654,11 +1659,11 @@
         <v>83</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="2">
-        <v>1</v>
-      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -1667,7 +1672,7 @@
       <c r="A78" t="s">
         <v>84</v>
       </c>
-      <c r="E78">
+      <c r="C78">
         <v>1</v>
       </c>
     </row>
@@ -1684,11 +1689,11 @@
         <v>86</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="2">
-        <v>1</v>
-      </c>
+      <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -1698,23 +1703,20 @@
         <v>87</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="2">
-        <v>1</v>
-      </c>
+      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
+      <c r="G82">
         <v>1</v>
       </c>
     </row>
@@ -1723,6 +1725,9 @@
         <v>89</v>
       </c>
       <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
         <v>1</v>
       </c>
     </row>
@@ -1766,7 +1771,7 @@
       <c r="A87" t="s">
         <v>93</v>
       </c>
-      <c r="D87">
+      <c r="C87">
         <v>1</v>
       </c>
     </row>
@@ -1775,9 +1780,7 @@
         <v>94</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="2">
-        <v>1</v>
-      </c>
+      <c r="C88" s="2"/>
       <c r="D88" s="2">
         <v>1</v>
       </c>
@@ -1794,7 +1797,9 @@
       <c r="C89" s="2">
         <v>1</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -1856,7 +1861,7 @@
       <c r="A95" t="s">
         <v>101</v>
       </c>
-      <c r="E95">
+      <c r="C95">
         <v>1</v>
       </c>
     </row>
@@ -1865,11 +1870,11 @@
         <v>102</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="2">
-        <v>1</v>
-      </c>
+      <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -1879,14 +1884,12 @@
         <v>103</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2">
-        <v>1</v>
-      </c>
+      <c r="C97" s="2">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2"/>
       <c r="E97" s="2"/>
-      <c r="F97" s="2">
-        <v>1</v>
-      </c>
+      <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
@@ -1894,7 +1897,10 @@
       <c r="A98" t="s">
         <v>104</v>
       </c>
-      <c r="C98">
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="F98">
         <v>1</v>
       </c>
     </row>
@@ -1902,7 +1908,7 @@
       <c r="A99" t="s">
         <v>105</v>
       </c>
-      <c r="D99">
+      <c r="C99">
         <v>1</v>
       </c>
     </row>
@@ -1911,10 +1917,10 @@
         <v>106</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="2">
-        <v>1</v>
-      </c>
-      <c r="D100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -1946,7 +1952,7 @@
       <c r="A103" t="s">
         <v>109</v>
       </c>
-      <c r="D103">
+      <c r="C103">
         <v>1</v>
       </c>
     </row>
@@ -1955,10 +1961,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="2">
-        <v>1</v>
-      </c>
-      <c r="D104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -1985,15 +1991,15 @@
       <c r="C106">
         <v>1</v>
       </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
-      <c r="E107">
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
         <v>1</v>
       </c>
     </row>
@@ -2002,11 +2008,11 @@
         <v>114</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="2">
-        <v>1</v>
-      </c>
+      <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -2024,6 +2030,14 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>

--- a/Images/Countries.xlsx
+++ b/Images/Countries.xlsx
@@ -1219,9 +1219,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">

--- a/Images/Countries.xlsx
+++ b/Images/Countries.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Country name</t>
   </si>
@@ -364,9 +364,6 @@
   </si>
   <si>
     <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
   </si>
   <si>
     <t>Tuvalu</t>
@@ -762,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H109"/>
   <!-- B4P: Example: A1:Z9 -->
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1" showGridLines="0">
@@ -1219,7 +1216,9 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1959,10 +1958,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2">
-        <v>1</v>
-      </c>
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -1989,15 +1988,15 @@
       <c r="C106">
         <v>1</v>
       </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
+      <c r="E107">
         <v>1</v>
       </c>
     </row>
@@ -2006,11 +2005,11 @@
         <v>114</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
       <c r="D108" s="2"/>
-      <c r="E108" s="2">
-        <v>1</v>
-      </c>
+      <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -2028,14 +2027,6 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>116</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>

--- a/Images/Countries.xlsx
+++ b/Images/Countries.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Country name</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
   </si>
   <si>
     <t>China</t>
@@ -759,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H110"/>
   <!-- B4P: Example: A1:Z9 -->
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1" showGridLines="0">
@@ -1007,7 +1010,7 @@
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
+      <c r="E19">
         <v>1</v>
       </c>
     </row>
@@ -1015,10 +1018,10 @@
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1043,7 +1046,7 @@
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="E22">
+      <c r="C22">
         <v>1</v>
       </c>
     </row>
@@ -1051,7 +1054,7 @@
       <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1</v>
       </c>
     </row>
@@ -1087,7 +1090,7 @@
       <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1</v>
       </c>
     </row>
@@ -1095,7 +1098,7 @@
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="E27">
+      <c r="C27">
         <v>1</v>
       </c>
     </row>
@@ -1105,10 +1108,10 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1119,10 +1122,10 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1131,7 +1134,7 @@
       <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1</v>
       </c>
     </row>
@@ -1139,7 +1142,7 @@
       <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1</v>
       </c>
     </row>
@@ -1148,11 +1151,11 @@
         <v>38</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1183,9 +1186,6 @@
       <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
       <c r="E35">
         <v>1</v>
       </c>
@@ -1195,11 +1195,13 @@
         <v>42</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1216,15 +1218,16 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
-      <c r="D38">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>1</v>
       </c>
     </row>
@@ -1241,10 +1244,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -1255,12 +1258,12 @@
         <v>47</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
+      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
@@ -1268,7 +1271,7 @@
       <c r="A42" t="s">
         <v>48</v>
       </c>
-      <c r="C42">
+      <c r="F42">
         <v>1</v>
       </c>
     </row>
@@ -1285,11 +1288,11 @@
         <v>50</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -1300,10 +1303,10 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1312,7 +1315,7 @@
       <c r="A46" t="s">
         <v>52</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>1</v>
       </c>
     </row>
@@ -1320,7 +1323,7 @@
       <c r="A47" t="s">
         <v>53</v>
       </c>
-      <c r="D47">
+      <c r="C47">
         <v>1</v>
       </c>
     </row>
@@ -1330,10 +1333,10 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -1343,16 +1346,14 @@
         <v>55</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
+      <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2">
-        <v>1</v>
-      </c>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1361,6 +1362,9 @@
       <c r="C50">
         <v>1</v>
       </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1375,13 +1379,13 @@
         <v>58</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2">
-        <v>1</v>
-      </c>
+      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1389,13 +1393,13 @@
         <v>59</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
+      <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -1410,7 +1414,7 @@
       <c r="A55" t="s">
         <v>61</v>
       </c>
-      <c r="G55">
+      <c r="C55">
         <v>1</v>
       </c>
     </row>
@@ -1419,13 +1423,13 @@
         <v>62</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
+      <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -1446,7 +1450,7 @@
       <c r="A58" t="s">
         <v>64</v>
       </c>
-      <c r="F58">
+      <c r="C58">
         <v>1</v>
       </c>
     </row>
@@ -1454,9 +1458,6 @@
       <c r="A59" t="s">
         <v>65</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
       <c r="F59">
         <v>1</v>
       </c>
@@ -1471,7 +1472,9 @@
         <v>1</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
@@ -1480,10 +1483,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -1493,7 +1496,7 @@
       <c r="A62" t="s">
         <v>68</v>
       </c>
-      <c r="D62">
+      <c r="C62">
         <v>1</v>
       </c>
     </row>
@@ -1501,7 +1504,7 @@
       <c r="A63" t="s">
         <v>69</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>1</v>
       </c>
     </row>
@@ -1545,7 +1548,7 @@
       <c r="A67" t="s">
         <v>73</v>
       </c>
-      <c r="D67">
+      <c r="C67">
         <v>1</v>
       </c>
     </row>
@@ -1554,10 +1557,10 @@
         <v>74</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="C68" s="2">
-        <v>1</v>
-      </c>
-      <c r="D68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -1581,7 +1584,7 @@
       <c r="A70" t="s">
         <v>76</v>
       </c>
-      <c r="E70">
+      <c r="C70">
         <v>1</v>
       </c>
     </row>
@@ -1589,7 +1592,7 @@
       <c r="A71" t="s">
         <v>77</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>1</v>
       </c>
     </row>
@@ -1598,10 +1601,10 @@
         <v>78</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -1656,11 +1659,11 @@
         <v>83</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
       <c r="D77" s="2"/>
-      <c r="E77" s="2">
-        <v>1</v>
-      </c>
+      <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -1669,7 +1672,7 @@
       <c r="A78" t="s">
         <v>84</v>
       </c>
-      <c r="C78">
+      <c r="E78">
         <v>1</v>
       </c>
     </row>
@@ -1677,7 +1680,7 @@
       <c r="A79" t="s">
         <v>85</v>
       </c>
-      <c r="E79">
+      <c r="C79">
         <v>1</v>
       </c>
     </row>
@@ -1700,11 +1703,11 @@
         <v>87</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2">
-        <v>1</v>
-      </c>
+      <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -1713,7 +1716,7 @@
       <c r="A82" t="s">
         <v>88</v>
       </c>
-      <c r="G82">
+      <c r="C82">
         <v>1</v>
       </c>
     </row>
@@ -1721,10 +1724,7 @@
       <c r="A83" t="s">
         <v>89</v>
       </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
+      <c r="G83">
         <v>1</v>
       </c>
     </row>
@@ -1736,7 +1736,9 @@
       <c r="C84" s="2">
         <v>1</v>
       </c>
-      <c r="D84" s="2"/>
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -1777,10 +1779,10 @@
         <v>94</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2">
-        <v>1</v>
-      </c>
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -1791,9 +1793,7 @@
         <v>95</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="2">
-        <v>1</v>
-      </c>
+      <c r="C89" s="2"/>
       <c r="D89" s="2">
         <v>1</v>
       </c>
@@ -1807,6 +1807,9 @@
         <v>96</v>
       </c>
       <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
         <v>1</v>
       </c>
     </row>
@@ -1867,11 +1870,11 @@
         <v>102</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
       <c r="D96" s="2"/>
-      <c r="E96" s="2">
-        <v>1</v>
-      </c>
+      <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -1881,11 +1884,11 @@
         <v>103</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="2">
-        <v>1</v>
-      </c>
+      <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -1894,10 +1897,7 @@
       <c r="A98" t="s">
         <v>104</v>
       </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="F98">
+      <c r="C98">
         <v>1</v>
       </c>
     </row>
@@ -1905,7 +1905,10 @@
       <c r="A99" t="s">
         <v>105</v>
       </c>
-      <c r="C99">
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="F99">
         <v>1</v>
       </c>
     </row>
@@ -1914,10 +1917,10 @@
         <v>106</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2">
-        <v>1</v>
-      </c>
+      <c r="C100" s="2">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -1928,10 +1931,10 @@
         <v>107</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="C101" s="2">
-        <v>1</v>
-      </c>
-      <c r="D101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -1988,15 +1991,15 @@
       <c r="C106">
         <v>1</v>
       </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
-      <c r="E107">
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
         <v>1</v>
       </c>
     </row>
@@ -2005,11 +2008,11 @@
         <v>114</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="2">
-        <v>1</v>
-      </c>
+      <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -2027,6 +2030,14 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>

--- a/Images/Countries.xlsx
+++ b/Images/Countries.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Country name</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Nauru</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
   </si>
   <si>
     <t>Nicaragua</t>
@@ -762,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H111"/>
   <!-- B4P: Example: A1:Z9 -->
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1" showGridLines="0">
@@ -1592,7 +1595,7 @@
       <c r="A71" t="s">
         <v>77</v>
       </c>
-      <c r="E71">
+      <c r="C71">
         <v>1</v>
       </c>
     </row>
@@ -1602,10 +1605,10 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="2">
-        <v>1</v>
-      </c>
-      <c r="E72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -1615,10 +1618,10 @@
         <v>79</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="2">
-        <v>1</v>
-      </c>
-      <c r="D73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -1672,7 +1675,7 @@
       <c r="A78" t="s">
         <v>84</v>
       </c>
-      <c r="E78">
+      <c r="C78">
         <v>1</v>
       </c>
     </row>
@@ -1680,7 +1683,7 @@
       <c r="A79" t="s">
         <v>85</v>
       </c>
-      <c r="C79">
+      <c r="E79">
         <v>1</v>
       </c>
     </row>
@@ -1689,11 +1692,11 @@
         <v>86</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
       <c r="D80" s="2"/>
-      <c r="E80" s="2">
-        <v>1</v>
-      </c>
+      <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -1716,7 +1719,7 @@
       <c r="A82" t="s">
         <v>88</v>
       </c>
-      <c r="C82">
+      <c r="E82">
         <v>1</v>
       </c>
     </row>
@@ -1724,7 +1727,7 @@
       <c r="A83" t="s">
         <v>89</v>
       </c>
-      <c r="G83">
+      <c r="C83">
         <v>1</v>
       </c>
     </row>
@@ -1733,15 +1736,13 @@
         <v>90</v>
       </c>
       <c r="B84" s="2"/>
-      <c r="C84" s="2">
-        <v>1</v>
-      </c>
-      <c r="D84" s="2">
-        <v>1</v>
-      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -1752,7 +1753,9 @@
       <c r="C85" s="2">
         <v>1</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -1793,10 +1796,10 @@
         <v>95</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2">
-        <v>1</v>
-      </c>
+      <c r="C89" s="2">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -1806,9 +1809,6 @@
       <c r="A90" t="s">
         <v>96</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
       <c r="D90">
         <v>1</v>
       </c>
@@ -1818,6 +1818,9 @@
         <v>97</v>
       </c>
       <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
         <v>1</v>
       </c>
     </row>
@@ -1884,11 +1887,11 @@
         <v>103</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="C97" s="2">
+        <v>1</v>
+      </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="2">
-        <v>1</v>
-      </c>
+      <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -1897,7 +1900,7 @@
       <c r="A98" t="s">
         <v>104</v>
       </c>
-      <c r="C98">
+      <c r="E98">
         <v>1</v>
       </c>
     </row>
@@ -1905,10 +1908,7 @@
       <c r="A99" t="s">
         <v>105</v>
       </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="F99">
+      <c r="C99">
         <v>1</v>
       </c>
     </row>
@@ -1917,12 +1917,14 @@
         <v>106</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="2">
-        <v>1</v>
-      </c>
-      <c r="D100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
       <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
+      <c r="F100" s="2">
+        <v>1</v>
+      </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
     </row>
@@ -1931,10 +1933,10 @@
         <v>107</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2">
-        <v>1</v>
-      </c>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -1944,7 +1946,7 @@
       <c r="A102" t="s">
         <v>108</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>1</v>
       </c>
     </row>
@@ -1999,20 +2001,19 @@
       <c r="C107">
         <v>1</v>
       </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2">
-        <v>1</v>
-      </c>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+      <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -2022,11 +2023,11 @@
         <v>115</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="C109" s="2">
-        <v>1</v>
-      </c>
+      <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
@@ -2036,6 +2037,14 @@
         <v>116</v>
       </c>
       <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111">
         <v>1</v>
       </c>
     </row>

--- a/Images/Countries.xlsx
+++ b/Images/Countries.xlsx
@@ -75,7 +75,7 @@
     <t> Afghanistan</t>
   </si>
   <si>
-    <t>The Islamic Republic of Afghanistan</t>
+    <t>Islamic Republic of Afghanistan</t>
   </si>
   <si>
     <t>UN member</t>
@@ -117,7 +117,7 @@
     <t> Albania</t>
   </si>
   <si>
-    <t>The Republic of Albania</t>
+    <t>Republic of Albania</t>
   </si>
   <si>
     <t>AL</t>
@@ -135,7 +135,7 @@
     <t> Algeria</t>
   </si>
   <si>
-    <t>The People's Democratic Republic of Algeria</t>
+    <t>People's Democratic Republic of Algeria</t>
   </si>
   <si>
     <t>DZ</t>
@@ -153,7 +153,7 @@
     <t> American Samoa</t>
   </si>
   <si>
-    <t>The Territory of American Samoa</t>
+    <t>Territory of American Samoa</t>
   </si>
   <si>
     <t>United States</t>
@@ -174,7 +174,7 @@
     <t> Andorra</t>
   </si>
   <si>
-    <t>The Principality of Andorra</t>
+    <t>Principality of Andorra</t>
   </si>
   <si>
     <t>AD</t>
@@ -192,7 +192,7 @@
     <t> Angola</t>
   </si>
   <si>
-    <t>The Republic of Angola</t>
+    <t>Republic of Angola</t>
   </si>
   <si>
     <t>AO</t>
@@ -270,7 +270,7 @@
     <t> Argentina</t>
   </si>
   <si>
-    <t>The Argentine Republic</t>
+    <t>Argentine Republic</t>
   </si>
   <si>
     <t>AR</t>
@@ -288,7 +288,7 @@
     <t> Armenia</t>
   </si>
   <si>
-    <t>The Republic of Armenia</t>
+    <t>Republic of Armenia</t>
   </si>
   <si>
     <t>AM</t>
@@ -327,7 +327,7 @@
     <t> Australia [c]</t>
   </si>
   <si>
-    <t>The Commonwealth of Australia</t>
+    <t>Commonwealth of Australia</t>
   </si>
   <si>
     <t>AU</t>
@@ -345,7 +345,7 @@
     <t> Austria</t>
   </si>
   <si>
-    <t>The Republic of Austria</t>
+    <t>Republic of Austria</t>
   </si>
   <si>
     <t>AT</t>
@@ -363,7 +363,7 @@
     <t> Azerbaijan</t>
   </si>
   <si>
-    <t>The Republic of Azerbaijan</t>
+    <t>Republic of Azerbaijan</t>
   </si>
   <si>
     <t>AZ</t>
@@ -381,7 +381,7 @@
     <t> Bahamas (the)</t>
   </si>
   <si>
-    <t>The Commonwealth of The Bahamas</t>
+    <t>Commonwealth of The Bahamas</t>
   </si>
   <si>
     <t>BS</t>
@@ -399,7 +399,7 @@
     <t> Bahrain</t>
   </si>
   <si>
-    <t>The Kingdom of Bahrain</t>
+    <t>Kingdom of Bahrain</t>
   </si>
   <si>
     <t>BH</t>
@@ -417,7 +417,7 @@
     <t> Bangladesh</t>
   </si>
   <si>
-    <t>The People's Republic of Bangladesh</t>
+    <t>People's Republic of Bangladesh</t>
   </si>
   <si>
     <t>BD</t>
@@ -453,7 +453,7 @@
     <t> Belarus</t>
   </si>
   <si>
-    <t>The Republic of Belarus</t>
+    <t>Republic of Belarus</t>
   </si>
   <si>
     <t>BY</t>
@@ -471,7 +471,7 @@
     <t> Belgium</t>
   </si>
   <si>
-    <t>The Kingdom of Belgium</t>
+    <t>Kingdom of Belgium</t>
   </si>
   <si>
     <t>BE</t>
@@ -507,7 +507,7 @@
     <t> Benin</t>
   </si>
   <si>
-    <t>The Republic of Benin</t>
+    <t>Republic of Benin</t>
   </si>
   <si>
     <t>BJ</t>
@@ -543,7 +543,7 @@
     <t> Bhutan</t>
   </si>
   <si>
-    <t>The Kingdom of Bhutan</t>
+    <t>Kingdom of Bhutan</t>
   </si>
   <si>
     <t>BT</t>
@@ -561,7 +561,7 @@
     <t> Bolivia (Plurinational State of)</t>
   </si>
   <si>
-    <t>The Plurinational State of Bolivia</t>
+    <t>Plurinational State of Bolivia</t>
   </si>
   <si>
     <t>BO</t>
@@ -615,7 +615,7 @@
     <t> Botswana</t>
   </si>
   <si>
-    <t>The Republic of Botswana</t>
+    <t>Republic of Botswana</t>
   </si>
   <si>
     <t>BW</t>
@@ -654,7 +654,7 @@
     <t> Brazil</t>
   </si>
   <si>
-    <t>The Federative Republic of Brazil</t>
+    <t>Federative Republic of Brazil</t>
   </si>
   <si>
     <t>BR</t>
@@ -672,7 +672,7 @@
     <t> British Indian Ocean Territory (the)</t>
   </si>
   <si>
-    <t>The British Indian Ocean Territory</t>
+    <t>British Indian Ocean Territory</t>
   </si>
   <si>
     <t>IO</t>
@@ -696,7 +696,7 @@
     <t> Brunei Darussalam [f]</t>
   </si>
   <si>
-    <t>The Nation of Brunei, the Abode of Peace</t>
+    <t>Nation of Brunei, the Abode of Peace</t>
   </si>
   <si>
     <t>BN</t>
@@ -714,7 +714,7 @@
     <t> Bulgaria</t>
   </si>
   <si>
-    <t>The Republic of Bulgaria</t>
+    <t>Republic of Bulgaria</t>
   </si>
   <si>
     <t>BG</t>
@@ -753,7 +753,7 @@
     <t> Burundi</t>
   </si>
   <si>
-    <t>The Republic of Burundi</t>
+    <t>Republic of Burundi</t>
   </si>
   <si>
     <t>BI</t>
@@ -771,7 +771,7 @@
     <t> Cabo Verde [g]</t>
   </si>
   <si>
-    <t>The Republic of Cabo Verde</t>
+    <t>Republic of Cabo Verde</t>
   </si>
   <si>
     <t>CV</t>
@@ -789,7 +789,7 @@
     <t> Cambodia</t>
   </si>
   <si>
-    <t>The Kingdom of Cambodia</t>
+    <t>Kingdom of Cambodia</t>
   </si>
   <si>
     <t>KH</t>
@@ -807,7 +807,7 @@
     <t> Cameroon</t>
   </si>
   <si>
-    <t>The Republic of Cameroon</t>
+    <t>Republic of Cameroon</t>
   </si>
   <si>
     <t>CM</t>
@@ -849,7 +849,7 @@
     <t> Cayman Islands (the)</t>
   </si>
   <si>
-    <t>The Cayman Islands</t>
+    <t>Cayman Islands</t>
   </si>
   <si>
     <t>KY</t>
@@ -867,7 +867,7 @@
     <t> Central African Republic (the)</t>
   </si>
   <si>
-    <t>The Central African Republic</t>
+    <t>Central African Republic</t>
   </si>
   <si>
     <t>CF</t>
@@ -885,7 +885,7 @@
     <t> Chad</t>
   </si>
   <si>
-    <t>The Republic of Chad</t>
+    <t>Republic of Chad</t>
   </si>
   <si>
     <t>TD</t>
@@ -903,7 +903,7 @@
     <t> Chile</t>
   </si>
   <si>
-    <t>The Republic of Chile</t>
+    <t>Republic of Chile</t>
   </si>
   <si>
     <t>CL</t>
@@ -921,7 +921,7 @@
     <t> China</t>
   </si>
   <si>
-    <t>The People's Republic of China</t>
+    <t>People's Republic of China</t>
   </si>
   <si>
     <t>CN</t>
@@ -942,7 +942,7 @@
     <t> Christmas Island</t>
   </si>
   <si>
-    <t>The Territory of Christmas Island</t>
+    <t>Territory of Christmas Island</t>
   </si>
   <si>
     <t>Australia</t>
@@ -963,7 +963,7 @@
     <t> Cocos (Keeling) Islands (the)</t>
   </si>
   <si>
-    <t>The Territory of Cocos (Keeling) Islands</t>
+    <t>Territory of Cocos (Keeling) Islands</t>
   </si>
   <si>
     <t>CC</t>
@@ -981,7 +981,7 @@
     <t> Colombia</t>
   </si>
   <si>
-    <t>The Republic of Colombia</t>
+    <t>Republic of Colombia</t>
   </si>
   <si>
     <t>CO</t>
@@ -999,7 +999,7 @@
     <t> Comoros (the)</t>
   </si>
   <si>
-    <t>The Union of the Comoros</t>
+    <t>Union of the Comoros</t>
   </si>
   <si>
     <t>KM</t>
@@ -1017,7 +1017,7 @@
     <t> Congo (the Democratic Republic of the)</t>
   </si>
   <si>
-    <t>The Democratic Republic of the Congo</t>
+    <t>Democratic Republic of the Congo</t>
   </si>
   <si>
     <t>CD</t>
@@ -1035,7 +1035,7 @@
     <t> Congo (the) [h]</t>
   </si>
   <si>
-    <t>The Republic of the Congo</t>
+    <t>Republic of the Congo</t>
   </si>
   <si>
     <t>CG</t>
@@ -1053,7 +1053,7 @@
     <t> Cook Islands (the)</t>
   </si>
   <si>
-    <t>The Cook Islands</t>
+    <t>Cook Islands</t>
   </si>
   <si>
     <t>New Zealand</t>
@@ -1074,7 +1074,7 @@
     <t> Costa Rica</t>
   </si>
   <si>
-    <t>The Republic of Costa Rica</t>
+    <t>Republic of Costa Rica</t>
   </si>
   <si>
     <t>CR</t>
@@ -1092,7 +1092,7 @@
     <t> Côte d'Ivoire [i]</t>
   </si>
   <si>
-    <t>The Republic of Côte d'Ivoire</t>
+    <t>Republic of Côte d'Ivoire</t>
   </si>
   <si>
     <t>CI</t>
@@ -1110,7 +1110,7 @@
     <t> Croatia</t>
   </si>
   <si>
-    <t>The Republic of Croatia</t>
+    <t>Republic of Croatia</t>
   </si>
   <si>
     <t>HR</t>
@@ -1128,7 +1128,7 @@
     <t> Cuba</t>
   </si>
   <si>
-    <t>The Republic of Cuba</t>
+    <t>Republic of Cuba</t>
   </si>
   <si>
     <t>CU</t>
@@ -1146,7 +1146,7 @@
     <t> Curaçao</t>
   </si>
   <si>
-    <t>The Country of Curaçao</t>
+    <t>Country of Curaçao</t>
   </si>
   <si>
     <t>CW</t>
@@ -1164,7 +1164,7 @@
     <t> Cyprus</t>
   </si>
   <si>
-    <t>The Republic of Cyprus</t>
+    <t>Republic of Cyprus</t>
   </si>
   <si>
     <t>CY</t>
@@ -1182,7 +1182,7 @@
     <t> Czechia [j]</t>
   </si>
   <si>
-    <t>The Czech Republic</t>
+    <t>Czech Republic</t>
   </si>
   <si>
     <t>CZ</t>
@@ -1206,7 +1206,7 @@
     <t> Denmark</t>
   </si>
   <si>
-    <t>The Kingdom of Denmark</t>
+    <t>Kingdom of Denmark</t>
   </si>
   <si>
     <t>DK</t>
@@ -1224,7 +1224,7 @@
     <t> Djibouti</t>
   </si>
   <si>
-    <t>The Republic of Djibouti</t>
+    <t>Republic of Djibouti</t>
   </si>
   <si>
     <t>DJ</t>
@@ -1242,7 +1242,7 @@
     <t> Dominica</t>
   </si>
   <si>
-    <t>The Commonwealth of Dominica</t>
+    <t>Commonwealth of Dominica</t>
   </si>
   <si>
     <t>DM</t>
@@ -1260,7 +1260,7 @@
     <t> Dominican Republic (the)</t>
   </si>
   <si>
-    <t>The Dominican Republic</t>
+    <t>Dominican Republic</t>
   </si>
   <si>
     <t>DO</t>
@@ -1281,7 +1281,7 @@
     <t> Ecuador</t>
   </si>
   <si>
-    <t>The Republic of Ecuador</t>
+    <t>Republic of Ecuador</t>
   </si>
   <si>
     <t>EC</t>
@@ -1299,7 +1299,7 @@
     <t> Egypt</t>
   </si>
   <si>
-    <t>The Arab Republic of Egypt</t>
+    <t>Arab Republic of Egypt</t>
   </si>
   <si>
     <t>EG</t>
@@ -1317,7 +1317,7 @@
     <t> El Salvador</t>
   </si>
   <si>
-    <t>The Republic of El Salvador</t>
+    <t>Republic of El Salvador</t>
   </si>
   <si>
     <t>SV</t>
@@ -1335,7 +1335,7 @@
     <t> Equatorial Guinea</t>
   </si>
   <si>
-    <t>The Republic of Equatorial Guinea</t>
+    <t>Republic of Equatorial Guinea</t>
   </si>
   <si>
     <t>GQ</t>
@@ -1353,7 +1353,7 @@
     <t> Eritrea</t>
   </si>
   <si>
-    <t>The State of Eritrea</t>
+    <t>State of Eritrea</t>
   </si>
   <si>
     <t>ER</t>
@@ -1371,7 +1371,7 @@
     <t> Estonia</t>
   </si>
   <si>
-    <t>The Republic of Estonia</t>
+    <t>Republic of Estonia</t>
   </si>
   <si>
     <t>EE</t>
@@ -1389,7 +1389,7 @@
     <t> Eswatini [k]</t>
   </si>
   <si>
-    <t>The Kingdom of Eswatini</t>
+    <t>Kingdom of Eswatini</t>
   </si>
   <si>
     <t>SZ</t>
@@ -1407,7 +1407,7 @@
     <t> Ethiopia</t>
   </si>
   <si>
-    <t>The Federal Democratic Republic of Ethiopia</t>
+    <t>Federal Democratic Republic of Ethiopia</t>
   </si>
   <si>
     <t>ET</t>
@@ -1425,7 +1425,7 @@
     <t> Falkland Islands (the) [Malvinas] [l]</t>
   </si>
   <si>
-    <t>The Falkland Islands</t>
+    <t>Falkland Islands</t>
   </si>
   <si>
     <t>FK</t>
@@ -1443,7 +1443,7 @@
     <t> Faroe Islands (the)</t>
   </si>
   <si>
-    <t>The Faroe Islands</t>
+    <t>Faroe Islands</t>
   </si>
   <si>
     <t>Denmark</t>
@@ -1464,7 +1464,7 @@
     <t> Fiji</t>
   </si>
   <si>
-    <t>The Republic of Fiji</t>
+    <t>Republic of Fiji</t>
   </si>
   <si>
     <t>FJ</t>
@@ -1482,7 +1482,7 @@
     <t> Finland</t>
   </si>
   <si>
-    <t>The Republic of Finland</t>
+    <t>Republic of Finland</t>
   </si>
   <si>
     <t>FI</t>
@@ -1500,7 +1500,7 @@
     <t> France [m]</t>
   </si>
   <si>
-    <t>The French Republic</t>
+    <t>French Republic</t>
   </si>
   <si>
     <t>FR</t>
@@ -1557,7 +1557,7 @@
     <t> French Southern Territories (the) [n]</t>
   </si>
   <si>
-    <t>The French Southern and Antarctic Lands</t>
+    <t>French Southern and Antarctic Lands</t>
   </si>
   <si>
     <t>TF</t>
@@ -1575,7 +1575,7 @@
     <t> Gabon</t>
   </si>
   <si>
-    <t>The Gabonese Republic</t>
+    <t>Gabonese Republic</t>
   </si>
   <si>
     <t>GA</t>
@@ -1593,7 +1593,7 @@
     <t> Gambia (the)</t>
   </si>
   <si>
-    <t>The Republic of The Gambia</t>
+    <t>Republic of The Gambia</t>
   </si>
   <si>
     <t>GM</t>
@@ -1629,7 +1629,7 @@
     <t> Germany</t>
   </si>
   <si>
-    <t>The Federal Republic of Germany</t>
+    <t>Federal Republic of Germany</t>
   </si>
   <si>
     <t>DE</t>
@@ -1647,7 +1647,7 @@
     <t> Ghana</t>
   </si>
   <si>
-    <t>The Republic of Ghana</t>
+    <t>Republic of Ghana</t>
   </si>
   <si>
     <t>GH</t>
@@ -1686,7 +1686,7 @@
     <t> Greece</t>
   </si>
   <si>
-    <t>The Hellenic Republic</t>
+    <t>Hellenic Republic</t>
   </si>
   <si>
     <t>GR</t>
@@ -1758,7 +1758,7 @@
     <t> Guam</t>
   </si>
   <si>
-    <t>The Territory of Guam</t>
+    <t>Territory of Guam</t>
   </si>
   <si>
     <t>GU</t>
@@ -1776,7 +1776,7 @@
     <t> Guatemala</t>
   </si>
   <si>
-    <t>The Republic of Guatemala</t>
+    <t>Republic of Guatemala</t>
   </si>
   <si>
     <t>GT</t>
@@ -1794,7 +1794,7 @@
     <t> Guernsey</t>
   </si>
   <si>
-    <t>The Bailiwick of Guernsey</t>
+    <t>Bailiwick of Guernsey</t>
   </si>
   <si>
     <t>British Crown</t>
@@ -1815,7 +1815,7 @@
     <t> Guinea</t>
   </si>
   <si>
-    <t>The Republic of Guinea</t>
+    <t>Republic of Guinea</t>
   </si>
   <si>
     <t>GN</t>
@@ -1833,7 +1833,7 @@
     <t> Guinea-Bissau</t>
   </si>
   <si>
-    <t>The Republic of Guinea-Bissau</t>
+    <t>Republic of Guinea-Bissau</t>
   </si>
   <si>
     <t>GW</t>
@@ -1851,7 +1851,7 @@
     <t> Guyana</t>
   </si>
   <si>
-    <t>The Co-operative Republic of Guyana</t>
+    <t>Co-operative Republic of Guyana</t>
   </si>
   <si>
     <t>GY</t>
@@ -1869,7 +1869,7 @@
     <t> Haiti</t>
   </si>
   <si>
-    <t>The Republic of Haiti</t>
+    <t>Republic of Haiti</t>
   </si>
   <si>
     <t>HT</t>
@@ -1887,7 +1887,7 @@
     <t> Heard Island and McDonald Islands</t>
   </si>
   <si>
-    <t>The Territory of Heard Island and McDonald Islands</t>
+    <t>Territory of Heard Island and McDonald Islands</t>
   </si>
   <si>
     <t>HM</t>
@@ -1926,7 +1926,7 @@
     <t> Honduras</t>
   </si>
   <si>
-    <t>The Republic of Honduras</t>
+    <t>Republic of Honduras</t>
   </si>
   <si>
     <t>HN</t>
@@ -1944,7 +1944,7 @@
     <t> Hong Kong</t>
   </si>
   <si>
-    <t>The Hong Kong Special Administrative Region of China[10]</t>
+    <t>Hong Kong Special Administrative Region of China[10]</t>
   </si>
   <si>
     <t>China</t>
@@ -2001,7 +2001,7 @@
     <t> India</t>
   </si>
   <si>
-    <t>The Republic of India</t>
+    <t>Republic of India</t>
   </si>
   <si>
     <t>IN</t>
@@ -2019,7 +2019,7 @@
     <t> Indonesia</t>
   </si>
   <si>
-    <t>The Republic of Indonesia</t>
+    <t>Republic of Indonesia</t>
   </si>
   <si>
     <t>ID</t>
@@ -2037,7 +2037,7 @@
     <t> Iran (Islamic Republic of)</t>
   </si>
   <si>
-    <t>The Islamic Republic of Iran</t>
+    <t>Islamic Republic of Iran</t>
   </si>
   <si>
     <t>IR</t>
@@ -2055,7 +2055,7 @@
     <t> Iraq</t>
   </si>
   <si>
-    <t>The Republic of Iraq</t>
+    <t>Republic of Iraq</t>
   </si>
   <si>
     <t>IQ</t>
@@ -2091,7 +2091,7 @@
     <t> Isle of Man</t>
   </si>
   <si>
-    <t>The Isle of Man</t>
+    <t>Isle of Man</t>
   </si>
   <si>
     <t>IM</t>
@@ -2109,7 +2109,7 @@
     <t> Israel</t>
   </si>
   <si>
-    <t>The State of Israel</t>
+    <t>State of Israel</t>
   </si>
   <si>
     <t>IL</t>
@@ -2127,7 +2127,7 @@
     <t> Italy</t>
   </si>
   <si>
-    <t>The Italian Republic</t>
+    <t>Italian Republic</t>
   </si>
   <si>
     <t>IT</t>
@@ -2187,7 +2187,7 @@
     <t> Jersey</t>
   </si>
   <si>
-    <t>The Bailiwick of Jersey</t>
+    <t>Bailiwick of Jersey</t>
   </si>
   <si>
     <t>JE</t>
@@ -2205,7 +2205,7 @@
     <t> Jordan</t>
   </si>
   <si>
-    <t>The Hashemite Kingdom of Jordan</t>
+    <t>Hashemite Kingdom of Jordan</t>
   </si>
   <si>
     <t>JO</t>
@@ -2223,7 +2223,7 @@
     <t> Kazakhstan</t>
   </si>
   <si>
-    <t>The Republic of Kazakhstan</t>
+    <t>Republic of Kazakhstan</t>
   </si>
   <si>
     <t>KZ</t>
@@ -2241,7 +2241,7 @@
     <t> Kenya</t>
   </si>
   <si>
-    <t>The Republic of Kenya</t>
+    <t>Republic of Kenya</t>
   </si>
   <si>
     <t>KE</t>
@@ -2259,7 +2259,7 @@
     <t> Kiribati</t>
   </si>
   <si>
-    <t>The Republic of Kiribati</t>
+    <t>Republic of Kiribati</t>
   </si>
   <si>
     <t>KI</t>
@@ -2277,7 +2277,7 @@
     <t> Korea (the Democratic People's Republic of) [p]</t>
   </si>
   <si>
-    <t>The Democratic People's Republic of Korea</t>
+    <t>Democratic People's Republic of Korea</t>
   </si>
   <si>
     <t>KP</t>
@@ -2295,7 +2295,7 @@
     <t> Korea (the Republic of) [q]</t>
   </si>
   <si>
-    <t>The Republic of Korea</t>
+    <t>Republic of Korea</t>
   </si>
   <si>
     <t>KR</t>
@@ -2313,7 +2313,7 @@
     <t> Kuwait</t>
   </si>
   <si>
-    <t>The State of Kuwait</t>
+    <t>State of Kuwait</t>
   </si>
   <si>
     <t>KW</t>
@@ -2331,7 +2331,7 @@
     <t> Kyrgyzstan</t>
   </si>
   <si>
-    <t>The Kyrgyz Republic</t>
+    <t>Kyrgyz Republic</t>
   </si>
   <si>
     <t>KG</t>
@@ -2349,7 +2349,7 @@
     <t> Lao People's Democratic Republic (the) [r]</t>
   </si>
   <si>
-    <t>The Lao People's Democratic Republic</t>
+    <t>Lao People's Democratic Republic</t>
   </si>
   <si>
     <t>LA</t>
@@ -2367,7 +2367,7 @@
     <t> Latvia</t>
   </si>
   <si>
-    <t>The Republic of Latvia</t>
+    <t>Republic of Latvia</t>
   </si>
   <si>
     <t>LV</t>
@@ -2385,7 +2385,7 @@
     <t> Lebanon</t>
   </si>
   <si>
-    <t>The Lebanese Republic</t>
+    <t>Lebanese Republic</t>
   </si>
   <si>
     <t>LB</t>
@@ -2403,7 +2403,7 @@
     <t> Lesotho</t>
   </si>
   <si>
-    <t>The Kingdom of Lesotho</t>
+    <t>Kingdom of Lesotho</t>
   </si>
   <si>
     <t>LS</t>
@@ -2421,7 +2421,7 @@
     <t> Liberia</t>
   </si>
   <si>
-    <t>The Republic of Liberia</t>
+    <t>Republic of Liberia</t>
   </si>
   <si>
     <t>LR</t>
@@ -2439,7 +2439,7 @@
     <t> Libya</t>
   </si>
   <si>
-    <t>The State of Libya</t>
+    <t>State of Libya</t>
   </si>
   <si>
     <t>LY</t>
@@ -2457,7 +2457,7 @@
     <t> Liechtenstein</t>
   </si>
   <si>
-    <t>The Principality of Liechtenstein</t>
+    <t>Principality of Liechtenstein</t>
   </si>
   <si>
     <t>LI</t>
@@ -2475,7 +2475,7 @@
     <t> Lithuania</t>
   </si>
   <si>
-    <t>The Republic of Lithuania</t>
+    <t>Republic of Lithuania</t>
   </si>
   <si>
     <t>LT</t>
@@ -2493,7 +2493,7 @@
     <t> Luxembourg</t>
   </si>
   <si>
-    <t>The Grand Duchy of Luxembourg</t>
+    <t>Grand Duchy of Luxembourg</t>
   </si>
   <si>
     <t>LU</t>
@@ -2511,7 +2511,7 @@
     <t> Macao [s]</t>
   </si>
   <si>
-    <t>The Macao Special Administrative Region of China[11]</t>
+    <t>Macao Special Administrative Region of China[11]</t>
   </si>
   <si>
     <t>MO</t>
@@ -2529,7 +2529,7 @@
     <t> Madagascar</t>
   </si>
   <si>
-    <t>The Republic of Madagascar</t>
+    <t>Republic of Madagascar</t>
   </si>
   <si>
     <t>MG</t>
@@ -2547,7 +2547,7 @@
     <t> Malawi</t>
   </si>
   <si>
-    <t>The Republic of Malawi</t>
+    <t>Republic of Malawi</t>
   </si>
   <si>
     <t>MW</t>
@@ -2583,7 +2583,7 @@
     <t> Maldives</t>
   </si>
   <si>
-    <t>The Republic of Maldives</t>
+    <t>Republic of Maldives</t>
   </si>
   <si>
     <t>MV</t>
@@ -2601,7 +2601,7 @@
     <t> Mali</t>
   </si>
   <si>
-    <t>The Republic of Mali</t>
+    <t>Republic of Mali</t>
   </si>
   <si>
     <t>ML</t>
@@ -2619,7 +2619,7 @@
     <t> Malta</t>
   </si>
   <si>
-    <t>The Republic of Malta</t>
+    <t>Republic of Malta</t>
   </si>
   <si>
     <t>MT</t>
@@ -2637,7 +2637,7 @@
     <t> Marshall Islands (the)</t>
   </si>
   <si>
-    <t>The Republic of the Marshall Islands</t>
+    <t>Republic of the Marshall Islands</t>
   </si>
   <si>
     <t>MH</t>
@@ -2673,7 +2673,7 @@
     <t> Mauritania</t>
   </si>
   <si>
-    <t>The Islamic Republic of Mauritania</t>
+    <t>Islamic Republic of Mauritania</t>
   </si>
   <si>
     <t>MR</t>
@@ -2691,7 +2691,7 @@
     <t> Mauritius</t>
   </si>
   <si>
-    <t>The Republic of Mauritius</t>
+    <t>Republic of Mauritius</t>
   </si>
   <si>
     <t>MU</t>
@@ -2709,7 +2709,7 @@
     <t> Mayotte</t>
   </si>
   <si>
-    <t>The Department of Mayotte</t>
+    <t>Department of Mayotte</t>
   </si>
   <si>
     <t>YT</t>
@@ -2727,7 +2727,7 @@
     <t> Mexico</t>
   </si>
   <si>
-    <t>The United Mexican States</t>
+    <t>United Mexican States</t>
   </si>
   <si>
     <t>MX</t>
@@ -2745,7 +2745,7 @@
     <t> Micronesia (Federated States of)</t>
   </si>
   <si>
-    <t>The Federated States of Micronesia</t>
+    <t>Federated States of Micronesia</t>
   </si>
   <si>
     <t>FM</t>
@@ -2763,7 +2763,7 @@
     <t> Moldova (the Republic of)</t>
   </si>
   <si>
-    <t>The Republic of Moldova</t>
+    <t>Republic of Moldova</t>
   </si>
   <si>
     <t>MD</t>
@@ -2781,7 +2781,7 @@
     <t> Monaco</t>
   </si>
   <si>
-    <t>The Principality of Monaco</t>
+    <t>Principality of Monaco</t>
   </si>
   <si>
     <t>MC</t>
@@ -2853,7 +2853,7 @@
     <t> Morocco</t>
   </si>
   <si>
-    <t>The Kingdom of Morocco</t>
+    <t>Kingdom of Morocco</t>
   </si>
   <si>
     <t>MA</t>
@@ -2871,7 +2871,7 @@
     <t> Mozambique</t>
   </si>
   <si>
-    <t>The Republic of Mozambique</t>
+    <t>Republic of Mozambique</t>
   </si>
   <si>
     <t>MZ</t>
@@ -2889,7 +2889,7 @@
     <t> Myanmar [t]</t>
   </si>
   <si>
-    <t>The Republic of the Union of Myanmar</t>
+    <t>Republic of the Union of Myanmar</t>
   </si>
   <si>
     <t>MM</t>
@@ -2907,7 +2907,7 @@
     <t> Namibia</t>
   </si>
   <si>
-    <t>The Republic of Namibia</t>
+    <t>Republic of Namibia</t>
   </si>
   <si>
     <t>NA</t>
@@ -2925,7 +2925,7 @@
     <t> Nauru</t>
   </si>
   <si>
-    <t>The Republic of Nauru</t>
+    <t>Republic of Nauru</t>
   </si>
   <si>
     <t>NR</t>
@@ -2943,7 +2943,7 @@
     <t> Nepal</t>
   </si>
   <si>
-    <t>The Federal Democratic Republic of Nepal</t>
+    <t>Federal Democratic Republic of Nepal</t>
   </si>
   <si>
     <t>NP</t>
@@ -2961,7 +2961,7 @@
     <t> Netherlands, Kingdom of the</t>
   </si>
   <si>
-    <t>The Kingdom of the Netherlands</t>
+    <t>Kingdom of the Netherlands</t>
   </si>
   <si>
     <t>NL</t>
@@ -3012,7 +3012,7 @@
     <t> Nicaragua</t>
   </si>
   <si>
-    <t>The Republic of Nicaragua</t>
+    <t>Republic of Nicaragua</t>
   </si>
   <si>
     <t>NI</t>
@@ -3030,7 +3030,7 @@
     <t> Niger (the)</t>
   </si>
   <si>
-    <t>The Republic of the Niger</t>
+    <t>Republic of the Niger</t>
   </si>
   <si>
     <t>NE</t>
@@ -3048,7 +3048,7 @@
     <t> Nigeria</t>
   </si>
   <si>
-    <t>The Federal Republic of Nigeria</t>
+    <t>Federal Republic of Nigeria</t>
   </si>
   <si>
     <t>NG</t>
@@ -3084,7 +3084,7 @@
     <t> Norfolk Island</t>
   </si>
   <si>
-    <t>The Territory of Norfolk Island</t>
+    <t>Territory of Norfolk Island</t>
   </si>
   <si>
     <t>NF</t>
@@ -3105,7 +3105,7 @@
     <t> North Macedonia [u]</t>
   </si>
   <si>
-    <t>The Republic of North Macedonia[12]</t>
+    <t>Republic of North Macedonia[12]</t>
   </si>
   <si>
     <t>MK</t>
@@ -3123,7 +3123,7 @@
     <t> Northern Mariana Islands (the)</t>
   </si>
   <si>
-    <t>The Commonwealth of the Northern Mariana Islands</t>
+    <t>Commonwealth of the Northern Mariana Islands</t>
   </si>
   <si>
     <t>MP</t>
@@ -3141,7 +3141,7 @@
     <t> Norway</t>
   </si>
   <si>
-    <t>The Kingdom of Norway</t>
+    <t>Kingdom of Norway</t>
   </si>
   <si>
     <t>NO</t>
@@ -3159,7 +3159,7 @@
     <t> Oman</t>
   </si>
   <si>
-    <t>The Sultanate of Oman</t>
+    <t>Sultanate of Oman</t>
   </si>
   <si>
     <t>OM</t>
@@ -3177,7 +3177,7 @@
     <t> Pakistan</t>
   </si>
   <si>
-    <t>The Islamic Republic of Pakistan</t>
+    <t>Islamic Republic of Pakistan</t>
   </si>
   <si>
     <t>PK</t>
@@ -3195,7 +3195,7 @@
     <t> Palau</t>
   </si>
   <si>
-    <t>The Republic of Palau</t>
+    <t>Republic of Palau</t>
   </si>
   <si>
     <t>PW</t>
@@ -3213,7 +3213,7 @@
     <t> Palestine, State of</t>
   </si>
   <si>
-    <t>The State of Palestine</t>
+    <t>State of Palestine</t>
   </si>
   <si>
     <t>PS</t>
@@ -3231,7 +3231,7 @@
     <t> Panama</t>
   </si>
   <si>
-    <t>The Republic of Panamá</t>
+    <t>Republic of Panamá</t>
   </si>
   <si>
     <t>PA</t>
@@ -3249,7 +3249,7 @@
     <t> Papua New Guinea</t>
   </si>
   <si>
-    <t>The Independent State of Papua New Guinea</t>
+    <t>Independent State of Papua New Guinea</t>
   </si>
   <si>
     <t>PG</t>
@@ -3267,7 +3267,7 @@
     <t> Paraguay</t>
   </si>
   <si>
-    <t>The Republic of Paraguay</t>
+    <t>Republic of Paraguay</t>
   </si>
   <si>
     <t>PY</t>
@@ -3288,7 +3288,7 @@
     <t> Peru</t>
   </si>
   <si>
-    <t>The Republic of Perú</t>
+    <t>Republic of Perú</t>
   </si>
   <si>
     <t>PE</t>
@@ -3306,7 +3306,7 @@
     <t> Philippines (the)</t>
   </si>
   <si>
-    <t>The Republic of the Philippines</t>
+    <t>Republic of the Philippines</t>
   </si>
   <si>
     <t>PH</t>
@@ -3324,7 +3324,7 @@
     <t> Pitcairn [v]</t>
   </si>
   <si>
-    <t>The Pitcairn, Henderson, Ducie and Oeno Islands</t>
+    <t>Pitcairn, Henderson, Ducie and Oeno Islands</t>
   </si>
   <si>
     <t>PN</t>
@@ -3342,7 +3342,7 @@
     <t> Poland</t>
   </si>
   <si>
-    <t>The Republic of Poland</t>
+    <t>Republic of Poland</t>
   </si>
   <si>
     <t>PL</t>
@@ -3360,7 +3360,7 @@
     <t> Portugal</t>
   </si>
   <si>
-    <t>The Portuguese Republic</t>
+    <t>Portuguese Republic</t>
   </si>
   <si>
     <t>PT</t>
@@ -3378,7 +3378,7 @@
     <t> Puerto Rico</t>
   </si>
   <si>
-    <t>The Commonwealth of Puerto Rico</t>
+    <t>Commonwealth of Puerto Rico</t>
   </si>
   <si>
     <t>PR</t>
@@ -3396,7 +3396,7 @@
     <t> Qatar</t>
   </si>
   <si>
-    <t>The State of Qatar</t>
+    <t>State of Qatar</t>
   </si>
   <si>
     <t>QA</t>
@@ -3459,7 +3459,7 @@
     <t> Russian Federation (the) [w]</t>
   </si>
   <si>
-    <t>The Russian Federation</t>
+    <t>Russian Federation</t>
   </si>
   <si>
     <t>RU</t>
@@ -3477,7 +3477,7 @@
     <t> Rwanda</t>
   </si>
   <si>
-    <t>The Republic of Rwanda</t>
+    <t>Republic of Rwanda</t>
   </si>
   <si>
     <t>RW</t>
@@ -3501,7 +3501,7 @@
     <t> Saint Barthélemy</t>
   </si>
   <si>
-    <t>The Collectivity of Saint-Barthélemy</t>
+    <t>Collectivity of Saint-Barthélemy</t>
   </si>
   <si>
     <t>BL</t>
@@ -3573,7 +3573,7 @@
     <t> Saint Martin (French part)</t>
   </si>
   <si>
-    <t>The Collectivity of Saint-Martin</t>
+    <t>Collectivity of Saint-Martin</t>
   </si>
   <si>
     <t>MF</t>
@@ -3591,7 +3591,7 @@
     <t> Saint Pierre and Miquelon</t>
   </si>
   <si>
-    <t>The Overseas Collectivity of Saint-Pierre and Miquelon</t>
+    <t>Overseas Collectivity of Saint-Pierre and Miquelon</t>
   </si>
   <si>
     <t>PM</t>
@@ -3627,7 +3627,7 @@
     <t> Samoa</t>
   </si>
   <si>
-    <t>The Independent State of Samoa</t>
+    <t>Independent State of Samoa</t>
   </si>
   <si>
     <t>WS</t>
@@ -3645,7 +3645,7 @@
     <t> San Marino</t>
   </si>
   <si>
-    <t>The Republic of San Marino</t>
+    <t>Republic of San Marino</t>
   </si>
   <si>
     <t>SM</t>
@@ -3663,7 +3663,7 @@
     <t> Sao Tome and Principe</t>
   </si>
   <si>
-    <t>The Democratic Republic of São Tomé and Príncipe</t>
+    <t>Democratic Republic of São Tomé and Príncipe</t>
   </si>
   <si>
     <t>ST</t>
@@ -3681,7 +3681,7 @@
     <t> Saudi Arabia</t>
   </si>
   <si>
-    <t>The Kingdom of Saudi Arabia</t>
+    <t>Kingdom of Saudi Arabia</t>
   </si>
   <si>
     <t>SA</t>
@@ -3699,7 +3699,7 @@
     <t> Senegal</t>
   </si>
   <si>
-    <t>The Republic of Senegal</t>
+    <t>Republic of Senegal</t>
   </si>
   <si>
     <t>SN</t>
@@ -3717,7 +3717,7 @@
     <t> Serbia</t>
   </si>
   <si>
-    <t>The Republic of Serbia</t>
+    <t>Republic of Serbia</t>
   </si>
   <si>
     <t>RS</t>
@@ -3735,7 +3735,7 @@
     <t> Seychelles</t>
   </si>
   <si>
-    <t>The Republic of Seychelles</t>
+    <t>Republic of Seychelles</t>
   </si>
   <si>
     <t>SC</t>
@@ -3753,7 +3753,7 @@
     <t> Sierra Leone</t>
   </si>
   <si>
-    <t>The Republic of Sierra Leone</t>
+    <t>Republic of Sierra Leone</t>
   </si>
   <si>
     <t>SL</t>
@@ -3771,7 +3771,7 @@
     <t> Singapore</t>
   </si>
   <si>
-    <t>The Republic of Singapore</t>
+    <t>Republic of Singapore</t>
   </si>
   <si>
     <t>SG</t>
@@ -3810,7 +3810,7 @@
     <t> Slovakia</t>
   </si>
   <si>
-    <t>The Slovak Republic</t>
+    <t>Slovak Republic</t>
   </si>
   <si>
     <t>SK</t>
@@ -3828,7 +3828,7 @@
     <t> Slovenia</t>
   </si>
   <si>
-    <t>The Republic of Slovenia</t>
+    <t>Republic of Slovenia</t>
   </si>
   <si>
     <t>SI</t>
@@ -3846,7 +3846,7 @@
     <t> Solomon Islands</t>
   </si>
   <si>
-    <t>The Solomon Islands</t>
+    <t>Solomon Islands</t>
   </si>
   <si>
     <t>SB</t>
@@ -3864,7 +3864,7 @@
     <t> Somalia</t>
   </si>
   <si>
-    <t>The Federal Republic of Somalia</t>
+    <t>Federal Republic of Somalia</t>
   </si>
   <si>
     <t>SO</t>
@@ -3882,7 +3882,7 @@
     <t> South Africa</t>
   </si>
   <si>
-    <t>The Republic of South Africa</t>
+    <t>Republic of South Africa</t>
   </si>
   <si>
     <t>ZA</t>
@@ -3921,7 +3921,7 @@
     <t> South Sudan</t>
   </si>
   <si>
-    <t>The Republic of South Sudan</t>
+    <t>Republic of South Sudan</t>
   </si>
   <si>
     <t>SS</t>
@@ -3939,7 +3939,7 @@
     <t> Spain</t>
   </si>
   <si>
-    <t>The Kingdom of Spain</t>
+    <t>Kingdom of Spain</t>
   </si>
   <si>
     <t>ES</t>
@@ -3957,7 +3957,7 @@
     <t> Sri Lanka</t>
   </si>
   <si>
-    <t>The Democratic Socialist Republic of Sri Lanka</t>
+    <t>Democratic Socialist Republic of Sri Lanka</t>
   </si>
   <si>
     <t>LK</t>
@@ -3975,7 +3975,7 @@
     <t> Sudan (the)</t>
   </si>
   <si>
-    <t>The Republic of the Sudan</t>
+    <t>Republic of the Sudan</t>
   </si>
   <si>
     <t>SD</t>
@@ -3993,7 +3993,7 @@
     <t> Suriname</t>
   </si>
   <si>
-    <t>The Republic of Suriname</t>
+    <t>Republic of Suriname</t>
   </si>
   <si>
     <t>SR</t>
@@ -4029,7 +4029,7 @@
     <t> Sweden</t>
   </si>
   <si>
-    <t>The Kingdom of Sweden</t>
+    <t>Kingdom of Sweden</t>
   </si>
   <si>
     <t>SE</t>
@@ -4047,7 +4047,7 @@
     <t> Switzerland</t>
   </si>
   <si>
-    <t>The Swiss Confederation</t>
+    <t>Swiss Confederation</t>
   </si>
   <si>
     <t>CH</t>
@@ -4065,7 +4065,7 @@
     <t> Syrian Arab Republic (the) [y]</t>
   </si>
   <si>
-    <t>The Syrian Arab Republic</t>
+    <t>Syrian Arab Republic</t>
   </si>
   <si>
     <t>SY</t>
@@ -4083,7 +4083,7 @@
     <t>Taiwan (Province of China) [z]</t>
   </si>
   <si>
-    <t>The Republic of China</t>
+    <t>Republic of China</t>
   </si>
   <si>
     <t>Disputed [aa]</t>
@@ -4104,7 +4104,7 @@
     <t> Tajikistan</t>
   </si>
   <si>
-    <t>The Republic of Tajikistan</t>
+    <t>Republic of Tajikistan</t>
   </si>
   <si>
     <t>TJ</t>
@@ -4122,7 +4122,7 @@
     <t> Tanzania, the United Republic of</t>
   </si>
   <si>
-    <t>The United Republic of Tanzania</t>
+    <t>United Republic of Tanzania</t>
   </si>
   <si>
     <t>TZ</t>
@@ -4140,7 +4140,7 @@
     <t> Thailand</t>
   </si>
   <si>
-    <t>The Kingdom of Thailand</t>
+    <t>Kingdom of Thailand</t>
   </si>
   <si>
     <t>TH</t>
@@ -4158,7 +4158,7 @@
     <t> Timor-Leste [ab]</t>
   </si>
   <si>
-    <t>The Democratic Republic of Timor-Leste</t>
+    <t>Democratic Republic of Timor-Leste</t>
   </si>
   <si>
     <t>TL</t>
@@ -4176,7 +4176,7 @@
     <t> Togo</t>
   </si>
   <si>
-    <t>The Togolese Republic</t>
+    <t>Togolese Republic</t>
   </si>
   <si>
     <t>TG</t>
@@ -4212,7 +4212,7 @@
     <t> Tonga</t>
   </si>
   <si>
-    <t>The Kingdom of Tonga</t>
+    <t>Kingdom of Tonga</t>
   </si>
   <si>
     <t>TO</t>
@@ -4230,7 +4230,7 @@
     <t> Trinidad and Tobago</t>
   </si>
   <si>
-    <t>The Republic of Trinidad and Tobago</t>
+    <t>Republic of Trinidad and Tobago</t>
   </si>
   <si>
     <t>TT</t>
@@ -4248,7 +4248,7 @@
     <t> Tunisia</t>
   </si>
   <si>
-    <t>The Republic of Tunisia</t>
+    <t>Republic of Tunisia</t>
   </si>
   <si>
     <t>TN</t>
@@ -4266,7 +4266,7 @@
     <t> Türkiye [ac]</t>
   </si>
   <si>
-    <t>The Republic of Türkiye</t>
+    <t>Republic of Türkiye</t>
   </si>
   <si>
     <t>TR</t>
@@ -4302,7 +4302,7 @@
     <t> Turks and Caicos Islands (the)</t>
   </si>
   <si>
-    <t>The Turks and Caicos Islands</t>
+    <t>Turks and Caicos Islands</t>
   </si>
   <si>
     <t>TC</t>
@@ -4338,7 +4338,7 @@
     <t> Uganda</t>
   </si>
   <si>
-    <t>The Republic of Uganda</t>
+    <t>Republic of Uganda</t>
   </si>
   <si>
     <t>UG</t>
@@ -4374,7 +4374,7 @@
     <t> United Arab Emirates (the)</t>
   </si>
   <si>
-    <t>The United Arab Emirates</t>
+    <t>United Arab Emirates</t>
   </si>
   <si>
     <t>AE</t>
@@ -4392,7 +4392,7 @@
     <t> United Kingdom of Great Britain and Northern Ireland (the)</t>
   </si>
   <si>
-    <t>The United Kingdom of Great Britain and Northern Ireland</t>
+    <t>United Kingdom of Great Britain and Northern Ireland</t>
   </si>
   <si>
     <t>GB</t>
@@ -4428,7 +4428,7 @@
     <t> United States of America (the)</t>
   </si>
   <si>
-    <t>The United States of America</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>US</t>
@@ -4449,7 +4449,7 @@
     <t> Uruguay</t>
   </si>
   <si>
-    <t>The Oriental Republic of Uruguay</t>
+    <t>Oriental Republic of Uruguay</t>
   </si>
   <si>
     <t>UY</t>
@@ -4467,7 +4467,7 @@
     <t> Uzbekistan</t>
   </si>
   <si>
-    <t>The Republic of Uzbekistan</t>
+    <t>Republic of Uzbekistan</t>
   </si>
   <si>
     <t>UZ</t>
@@ -4485,7 +4485,7 @@
     <t> Vanuatu</t>
   </si>
   <si>
-    <t>The Republic of Vanuatu</t>
+    <t>Republic of Vanuatu</t>
   </si>
   <si>
     <t>VU</t>
@@ -4506,7 +4506,7 @@
     <t> Venezuela (Bolivarian Republic of)</t>
   </si>
   <si>
-    <t>The Bolivarian Republic of Venezuela</t>
+    <t>Bolivarian Republic of Venezuela</t>
   </si>
   <si>
     <t>VE</t>
@@ -4524,7 +4524,7 @@
     <t> Viet Nam [ag]</t>
   </si>
   <si>
-    <t>The Socialist Republic of Viet Nam</t>
+    <t>Socialist Republic of Viet Nam</t>
   </si>
   <si>
     <t>VN</t>
@@ -4542,7 +4542,7 @@
     <t> Virgin Islands (British) [ah]</t>
   </si>
   <si>
-    <t>The Virgin Islands</t>
+    <t>Virgin Islands</t>
   </si>
   <si>
     <t>VG</t>
@@ -4560,7 +4560,7 @@
     <t> Virgin Islands (U.S.) [ai]</t>
   </si>
   <si>
-    <t>The Virgin Islands of the United States</t>
+    <t>Virgin Islands of the United States</t>
   </si>
   <si>
     <t>VI</t>
@@ -4578,7 +4578,7 @@
     <t> Wallis and Futuna</t>
   </si>
   <si>
-    <t>The Territory of the Wallis and Futuna Islands</t>
+    <t>Territory of the Wallis and Futuna Islands</t>
   </si>
   <si>
     <t>WF</t>
@@ -4596,7 +4596,7 @@
     <t> Western Sahara [aj]</t>
   </si>
   <si>
-    <t>The Sahrawi Arab Democratic Republic</t>
+    <t>Sahrawi Arab Democratic Republic</t>
   </si>
   <si>
     <t>Disputed [ak]</t>
@@ -4617,7 +4617,7 @@
     <t> Yemen</t>
   </si>
   <si>
-    <t>The Republic of Yemen</t>
+    <t>Republic of Yemen</t>
   </si>
   <si>
     <t>YE</t>
@@ -4635,7 +4635,7 @@
     <t> Zambia</t>
   </si>
   <si>
-    <t>The Republic of Zambia</t>
+    <t>Republic of Zambia</t>
   </si>
   <si>
     <t>ZM</t>
@@ -4653,7 +4653,7 @@
     <t> Zimbabwe</t>
   </si>
   <si>
-    <t>The Republic of Zimbabwe</t>
+    <t>Republic of Zimbabwe</t>
   </si>
   <si>
     <t>ZW</t>
